--- a/data-raw/data-tidy/tech-yearbook/part08-output/04-teckmarket-push/funds-2018.xlsx
+++ b/data-raw/data-tidy/tech-yearbook/part08-output/04-teckmarket-push/funds-2018.xlsx
@@ -500,7 +500,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>321.313058819</v>
+        <v>3213130.58819</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -520,7 +520,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>4957.82455942588</v>
+        <v>49578245.5942588</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -540,7 +540,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>84.52350441952</v>
+        <v>845235.0441952</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -560,7 +560,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>180.87783606044</v>
+        <v>1808778.3606044</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -580,7 +580,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>1365.418577285</v>
+        <v>13654185.77285</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -600,7 +600,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>61.4077247997</v>
+        <v>614077.247997</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -620,7 +620,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>171.0975233744</v>
+        <v>1710975.233744</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -640,7 +640,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>6.9407400078</v>
+        <v>69407.400078</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -660,7 +660,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>275.984006593902</v>
+        <v>2759840.06593902</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -680,7 +680,7 @@
         <v>8</v>
       </c>
       <c r="D11" t="n">
-        <v>149.283993754959</v>
+        <v>1492839.93754959</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -700,7 +700,7 @@
         <v>8</v>
       </c>
       <c r="D12" t="n">
-        <v>165.9200392628</v>
+        <v>1659200.392628</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -720,7 +720,7 @@
         <v>8</v>
       </c>
       <c r="D13" t="n">
-        <v>1204.0937356153</v>
+        <v>12040937.356153</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -740,7 +740,7 @@
         <v>8</v>
       </c>
       <c r="D14" t="n">
-        <v>281.612559231477</v>
+        <v>2816125.59231477</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -760,7 +760,7 @@
         <v>8</v>
       </c>
       <c r="D15" t="n">
-        <v>341.9460336168</v>
+        <v>3419460.336168</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -780,7 +780,7 @@
         <v>8</v>
       </c>
       <c r="D16" t="n">
-        <v>991.4474884443</v>
+        <v>9914474.884443</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -800,7 +800,7 @@
         <v>8</v>
       </c>
       <c r="D17" t="n">
-        <v>115.8230834165</v>
+        <v>1158230.834165</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -820,7 +820,7 @@
         <v>8</v>
       </c>
       <c r="D18" t="n">
-        <v>474.4910340889</v>
+        <v>4744910.340889</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -840,7 +840,7 @@
         <v>8</v>
       </c>
       <c r="D19" t="n">
-        <v>19.8398305648</v>
+        <v>198398.305648</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -860,7 +860,7 @@
         <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>12.10578919</v>
+        <v>121057.8919</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -880,7 +880,7 @@
         <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>79.35533036185</v>
+        <v>793553.3036185</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -900,7 +900,7 @@
         <v>8</v>
       </c>
       <c r="D22" t="n">
-        <v>17697.4212963105</v>
+        <v>176974212.963105</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -920,7 +920,7 @@
         <v>8</v>
       </c>
       <c r="D23" t="n">
-        <v>819.951966423493</v>
+        <v>8199519.66423493</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -940,7 +940,7 @@
         <v>8</v>
       </c>
       <c r="D24" t="n">
-        <v>150.756660919</v>
+        <v>1507566.60919</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -960,7 +960,7 @@
         <v>8</v>
       </c>
       <c r="D25" t="n">
-        <v>1125.29083988247</v>
+        <v>11252908.3988247</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -980,7 +980,7 @@
         <v>8</v>
       </c>
       <c r="D26" t="n">
-        <v>1225.18573904</v>
+        <v>12251857.3904</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -1000,7 +1000,7 @@
         <v>8</v>
       </c>
       <c r="D27" t="n">
-        <v>996.7010336676</v>
+        <v>9967010.336676</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
@@ -1020,7 +1020,7 @@
         <v>8</v>
       </c>
       <c r="D28" t="n">
-        <v>685.58753952161</v>
+        <v>6855875.3952161</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
@@ -1040,7 +1040,7 @@
         <v>8</v>
       </c>
       <c r="D29" t="n">
-        <v>0.03942</v>
+        <v>394.2</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
@@ -1060,7 +1060,7 @@
         <v>8</v>
       </c>
       <c r="D30" t="n">
-        <v>3.9214668901</v>
+        <v>39214.668901</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
@@ -1080,7 +1080,7 @@
         <v>8</v>
       </c>
       <c r="D31" t="n">
-        <v>89.4879425028</v>
+        <v>894879.425028</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
@@ -1100,7 +1100,7 @@
         <v>8</v>
       </c>
       <c r="D32" t="n">
-        <v>590.664080864004</v>
+        <v>5906640.80864004</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
@@ -1120,7 +1120,7 @@
         <v>8</v>
       </c>
       <c r="D33" t="n">
-        <v>188.3528627714</v>
+        <v>1883528.627714</v>
       </c>
       <c r="E33" t="s">
         <v>9</v>
